--- a/Documentação/Planilha de Riscos.xlsx
+++ b/Documentação/Planilha de Riscos.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\bruna\OneDrive\Documentos\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marcus\Desktop\SPRINT\Sprint02\Documentação\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4711EB44-EB9C-4905-B045-75E8B369C8AF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E3FD3062-CC7D-4A89-9D29-F906FEC78F1F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{9F683B73-EC8B-4DDE-A152-BAF7BEBCF5F9}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F683B73-EC8B-4DDE-A152-BAF7BEBCF5F9}"/>
   </bookViews>
   <sheets>
     <sheet name="Planilha2" sheetId="2" r:id="rId1"/>
@@ -20,15 +20,6 @@
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
-    </ext>
   </extLst>
 </workbook>
 </file>
@@ -105,15 +96,9 @@
     <t>Manter reuniões durante a semana para o grupo interagir e se informar sobre o projeto</t>
   </si>
   <si>
-    <t>Falta de compometimento com os intregáveis</t>
-  </si>
-  <si>
     <t>Conversar com o integrante para saber qual a dificuldade na tarefa e dar feedback</t>
   </si>
   <si>
-    <t>Conversar com o integrante para impedir que saia do projeto, ou se for sair avisar antecipadamente para organização.</t>
-  </si>
-  <si>
     <t>Falta de organização na apresentação</t>
   </si>
   <si>
@@ -121,13 +106,19 @@
   </si>
   <si>
     <t xml:space="preserve">Caso houver algum problema com a ferramenta já ter outra no plano B  </t>
+  </si>
+  <si>
+    <t>Conversar com o integrante para impedir que não saia do projeto, ou se for sair avisar antecipadamente para organização.</t>
+  </si>
+  <si>
+    <t>Falta de comprometimento com os intregáveis</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -137,6 +128,14 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -222,7 +221,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,6 +256,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -281,13 +283,13 @@
     <xdr:from>
       <xdr:col>3</xdr:col>
       <xdr:colOff>473291</xdr:colOff>
-      <xdr:row>10</xdr:row>
+      <xdr:row>9</xdr:row>
       <xdr:rowOff>135670</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>6</xdr:col>
       <xdr:colOff>250934</xdr:colOff>
-      <xdr:row>22</xdr:row>
+      <xdr:row>21</xdr:row>
       <xdr:rowOff>168617</xdr:rowOff>
     </xdr:to>
     <xdr:pic>
@@ -621,10 +623,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E05F1995-F100-4A5C-90E7-965DA711A689}">
-  <dimension ref="B1:H13"/>
+  <dimension ref="B1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -713,7 +715,7 @@
       <c r="C5" s="11" t="s">
         <v>17</v>
       </c>
-      <c r="D5" s="11">
+      <c r="D5" s="13">
         <v>2</v>
       </c>
       <c r="E5" s="11">
@@ -726,7 +728,7 @@
         <v>19</v>
       </c>
       <c r="H5" s="12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -757,7 +759,7 @@
         <v>3</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="D7" s="11">
         <v>2</v>
@@ -772,7 +774,7 @@
         <v>19</v>
       </c>
       <c r="H7" s="12" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -780,7 +782,7 @@
         <v>4</v>
       </c>
       <c r="C8" s="11" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="D8" s="11">
         <v>1</v>
@@ -795,7 +797,7 @@
         <v>19</v>
       </c>
       <c r="H8" s="11" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
@@ -806,49 +808,39 @@
         <v>21</v>
       </c>
       <c r="D9" s="11">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E9" s="11">
         <v>3</v>
       </c>
       <c r="F9" s="11">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="G9" s="11" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="H9" s="12" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="10" spans="2:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11">
-        <v>6</v>
-      </c>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="11"/>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B10" s="9"/>
+      <c r="C10" s="9"/>
+      <c r="D10" s="9"/>
+      <c r="E10" s="9"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="9"/>
+      <c r="H10" s="9"/>
     </row>
     <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" s="9"/>
-      <c r="C11" s="9"/>
-      <c r="D11" s="9"/>
-      <c r="E11" s="9"/>
-      <c r="F11" s="9"/>
-      <c r="G11" s="9"/>
       <c r="H11" s="9"/>
     </row>
     <row r="12" spans="2:8" x14ac:dyDescent="0.25">
       <c r="H12" s="9"/>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="H13" s="9"/>
-    </row>
   </sheetData>
   <pageMargins left="0.511811024" right="0.511811024" top="0.78740157499999996" bottom="0.78740157499999996" header="0.31496062000000002" footer="0.31496062000000002"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>